--- a/posesiones/1469948.xlsx
+++ b/posesiones/1469948.xlsx
@@ -1826,10 +1826,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2117,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>12</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2220,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>7</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2323,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>19</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <v>15</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>14</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2629,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>8</v>
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>19</v>
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21">
         <v>4</v>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2838,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R23">
         <v>17</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R25">
         <v>20</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3135,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R29">
         <v>29</v>
@@ -3188,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R30">
         <v>15</v>
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R31">
         <v>22</v>
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3341,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R33">
         <v>20</v>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3441,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R35">
         <v>20</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3544,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R37">
         <v>23</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3647,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R39">
         <v>4</v>
@@ -3700,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R40">
         <v>11</v>
@@ -3753,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R41">
         <v>16</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3853,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R43">
         <v>17</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4141,7 +4141,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R49">
         <v>17</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4291,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R52">
         <v>26</v>
@@ -4344,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R53">
         <v>14</v>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R55">
         <v>10</v>
@@ -4494,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4591,7 +4591,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -4644,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R59">
         <v>16</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R61">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4847,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R63">
         <v>20</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4950,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R65">
         <v>15</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5053,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R67">
         <v>13</v>
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5153,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R69">
         <v>21</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5256,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R71">
         <v>11</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5403,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R74">
         <v>26</v>
@@ -5453,7 +5453,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R75">
         <v>27</v>
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5600,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R78">
         <v>15</v>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5838,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6029,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R87">
         <v>18</v>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6317,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R93">
         <v>11</v>
@@ -6370,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R94">
         <v>17</v>
@@ -6420,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6461,10 +6461,10 @@
         <v>1</v>
       </c>
       <c r="P96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6511,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6746,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6840,7 +6840,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R104">
         <v>17</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6943,7 +6943,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R106">
         <v>13</v>
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7046,7 +7046,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R108">
         <v>16</v>
@@ -7096,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7146,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R110">
         <v>23</v>
@@ -7199,7 +7199,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R111">
         <v>16</v>
@@ -7252,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7302,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R113">
         <v>14</v>
@@ -7355,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7405,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R115">
         <v>9</v>
@@ -7455,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7505,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R117">
         <v>9</v>
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7658,7 +7658,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R120">
         <v>16</v>
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7852,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R124">
         <v>25</v>
@@ -7905,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7955,7 +7955,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R126">
         <v>21</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8193,7 +8193,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R131">
         <v>18</v>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8340,7 +8340,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8390,7 +8390,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R135">
         <v>8</v>
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8493,7 +8493,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R137">
         <v>8</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8687,7 +8687,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R141">
         <v>15</v>
@@ -8737,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R143">
         <v>24</v>
@@ -8840,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8890,7 +8890,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R145">
         <v>14</v>
@@ -8943,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8993,7 +8993,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R147">
         <v>5</v>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R149">
         <v>26</v>
@@ -9146,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9196,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R151">
         <v>8</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9293,7 +9293,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9340,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9384,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9478,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9528,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R158">
         <v>0</v>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9631,7 +9631,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R160">
         <v>18</v>
@@ -9681,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9781,7 +9781,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R163">
         <v>10</v>
@@ -9834,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R164">
         <v>12</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9931,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9978,7 +9978,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10075,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R169">
         <v>0</v>
@@ -10128,7 +10128,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R170">
         <v>22</v>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10231,7 +10231,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R172">
         <v>11</v>
@@ -10284,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10334,7 +10334,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R174">
         <v>7</v>
@@ -10387,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10481,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10528,7 +10528,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R180">
         <v>15</v>
@@ -10678,7 +10678,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R181">
         <v>22</v>
@@ -10728,7 +10728,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10778,7 +10778,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R183">
         <v>4</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10872,7 +10872,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10969,7 +10969,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R187">
         <v>13</v>
@@ -11019,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11069,7 +11069,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R189">
         <v>13</v>
@@ -11122,7 +11122,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R190">
         <v>16</v>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11222,7 +11222,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11272,7 +11272,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R193">
         <v>20</v>
@@ -11325,7 +11325,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R194">
         <v>11</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11425,7 +11425,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11525,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R198">
         <v>26</v>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11625,7 +11625,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R200">
         <v>19</v>
@@ -11675,7 +11675,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11725,7 +11725,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R202">
         <v>19</v>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11825,7 +11825,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11872,7 +11872,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11919,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12013,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12060,7 +12060,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12107,7 +12107,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12157,7 +12157,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R211">
         <v>1</v>
@@ -12207,7 +12207,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12257,7 +12257,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R213">
         <v>5</v>
@@ -12310,7 +12310,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R214">
         <v>30</v>
@@ -12354,10 +12354,10 @@
         <v>1</v>
       </c>
       <c r="P215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q215">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12404,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12451,7 +12451,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12498,7 +12498,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12545,7 +12545,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12592,7 +12592,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12639,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12680,10 +12680,10 @@
         <v>1</v>
       </c>
       <c r="P222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q222">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12733,7 +12733,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R223">
         <v>10</v>
@@ -12786,7 +12786,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12836,7 +12836,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R225">
         <v>15</v>
@@ -12889,7 +12889,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12939,7 +12939,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R227">
         <v>9</v>
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13039,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R229">
         <v>4</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13139,7 +13139,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13186,7 +13186,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13236,7 +13236,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R234">
         <v>27</v>
@@ -13339,7 +13339,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R235">
         <v>15</v>
@@ -13389,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13439,7 +13439,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R237">
         <v>4</v>
@@ -13489,7 +13489,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R239">
         <v>11</v>
@@ -13589,7 +13589,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13636,7 +13636,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13683,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13730,7 +13730,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R243">
         <v>24</v>
@@ -13780,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13827,7 +13827,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13874,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13921,7 +13921,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13968,7 +13968,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14065,7 +14065,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R250">
         <v>42</v>
@@ -14118,7 +14118,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R251">
         <v>21</v>
@@ -14171,7 +14171,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14218,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14265,7 +14265,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14315,7 +14315,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R255">
         <v>18</v>
@@ -14368,7 +14368,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R256">
         <v>22</v>
@@ -14418,7 +14418,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14468,7 +14468,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R258">
         <v>20</v>
@@ -14518,7 +14518,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14568,7 +14568,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R260">
         <v>18</v>
@@ -14618,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14665,7 +14665,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14712,7 +14712,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14759,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14806,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14853,7 +14853,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14903,7 +14903,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R267">
         <v>17</v>
@@ -14956,7 +14956,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15006,7 +15006,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R269">
         <v>11</v>
@@ -15059,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15109,7 +15109,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R271">
         <v>13</v>
@@ -15162,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15212,7 +15212,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R273">
         <v>8</v>
@@ -15262,7 +15262,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15309,7 +15309,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15356,7 +15356,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15406,7 +15406,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R277">
         <v>23</v>
@@ -15456,7 +15456,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15503,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15553,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R280">
         <v>20</v>
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15650,7 +15650,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15697,7 +15697,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15744,7 +15744,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15794,7 +15794,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R285">
         <v>20</v>
@@ -15847,7 +15847,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R286">
         <v>11</v>
@@ -15897,7 +15897,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15947,7 +15947,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15997,7 +15997,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R289">
         <v>37</v>
@@ -16047,7 +16047,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16097,7 +16097,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R291">
         <v>17</v>
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16197,7 +16197,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R293">
         <v>12</v>
@@ -16244,7 +16244,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16294,7 +16294,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R295">
         <v>16</v>
@@ -16344,7 +16344,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16438,7 +16438,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16538,7 +16538,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R300">
         <v>2</v>
@@ -16591,7 +16591,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16641,7 +16641,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R302">
         <v>15</v>
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16738,7 +16738,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16785,7 +16785,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16835,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16885,7 +16885,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R307">
         <v>17</v>
@@ -16935,7 +16935,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16985,7 +16985,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17035,7 +17035,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R310">
         <v>30</v>
@@ -17088,7 +17088,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17135,7 +17135,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17182,7 +17182,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17232,7 +17232,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17282,7 +17282,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R315">
         <v>12</v>
@@ -17329,7 +17329,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17376,7 +17376,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17423,7 +17423,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17470,7 +17470,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17517,7 +17517,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17564,7 +17564,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17611,7 +17611,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17658,7 +17658,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17708,7 +17708,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R324">
         <v>22</v>
@@ -17761,7 +17761,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R325">
         <v>9</v>
@@ -17811,7 +17811,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17858,7 +17858,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17905,7 +17905,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17999,7 +17999,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18046,7 +18046,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18096,7 +18096,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R332">
         <v>0</v>
@@ -18146,7 +18146,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18193,7 +18193,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18243,7 +18243,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R335">
         <v>20</v>
@@ -18296,7 +18296,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18346,7 +18346,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R337">
         <v>5</v>
@@ -18396,7 +18396,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18443,7 +18443,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18493,7 +18493,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R340">
         <v>2</v>
@@ -18537,10 +18537,10 @@
         <v>1</v>
       </c>
       <c r="P341" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q341">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18587,7 +18587,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18634,7 +18634,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18681,7 +18681,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18728,7 +18728,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18769,10 +18769,10 @@
         <v>1</v>
       </c>
       <c r="P346" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q346">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18822,7 +18822,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R347">
         <v>17</v>
@@ -18872,7 +18872,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18922,7 +18922,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R349">
         <v>18</v>
@@ -18972,7 +18972,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19022,7 +19022,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R351">
         <v>15</v>
@@ -19075,7 +19075,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R352">
         <v>14</v>
@@ -19128,7 +19128,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R353">
         <v>21</v>
@@ -19178,7 +19178,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19228,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R355">
         <v>15</v>
@@ -19281,7 +19281,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19331,7 +19331,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R357">
         <v>19</v>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19431,7 +19431,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R359">
         <v>13</v>
@@ -19481,7 +19481,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19531,7 +19531,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R361">
         <v>20</v>
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19628,7 +19628,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19675,7 +19675,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19725,7 +19725,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R365">
         <v>8</v>
@@ -19775,7 +19775,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19825,7 +19825,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19875,7 +19875,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R368">
         <v>14</v>
@@ -19928,7 +19928,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19978,7 +19978,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R370">
         <v>13</v>
@@ -20028,7 +20028,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20078,7 +20078,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R372">
         <v>22</v>
@@ -20128,7 +20128,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20178,7 +20178,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R374">
         <v>19</v>
@@ -20228,7 +20228,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20272,7 +20272,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20322,7 +20322,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R377">
         <v>15</v>
@@ -20372,7 +20372,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20422,7 +20422,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R379">
         <v>7</v>
@@ -20472,7 +20472,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20519,7 +20519,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20566,7 +20566,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20613,7 +20613,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20660,7 +20660,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20710,7 +20710,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R385">
         <v>17</v>
@@ -20763,7 +20763,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20813,7 +20813,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R387">
         <v>8</v>
@@ -20866,7 +20866,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20916,7 +20916,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R389">
         <v>13</v>
@@ -20966,7 +20966,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21013,7 +21013,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21063,7 +21063,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21113,7 +21113,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R393">
         <v>29</v>
@@ -21163,7 +21163,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21210,7 +21210,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21257,7 +21257,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21304,7 +21304,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21351,7 +21351,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21401,7 +21401,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21451,7 +21451,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R400">
         <v>22</v>
@@ -21501,7 +21501,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21548,7 +21548,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21598,7 +21598,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R403">
         <v>0</v>
@@ -21648,7 +21648,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21695,7 +21695,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21742,7 +21742,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21789,7 +21789,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21839,7 +21839,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R408">
         <v>26</v>
@@ -21889,7 +21889,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21939,7 +21939,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R410">
         <v>19</v>
@@ -21989,7 +21989,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22036,7 +22036,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22083,7 +22083,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22130,7 +22130,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22177,7 +22177,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22224,7 +22224,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22271,7 +22271,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22318,7 +22318,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22368,7 +22368,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R419">
         <v>10</v>
@@ -22421,7 +22421,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R420">
         <v>15</v>
@@ -22471,7 +22471,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22521,7 +22521,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R422">
         <v>15</v>
@@ -22574,7 +22574,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R424">
         <v>21</v>
@@ -22674,7 +22674,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22721,7 +22721,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22818,7 +22818,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R428">
         <v>12</v>
@@ -22868,7 +22868,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22915,7 +22915,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22962,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23012,7 +23012,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23062,7 +23062,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R433">
         <v>25</v>
@@ -23115,7 +23115,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R434">
         <v>10</v>
@@ -23165,7 +23165,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23215,7 +23215,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R436">
         <v>22</v>
@@ -23268,7 +23268,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23318,7 +23318,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R438">
         <v>7</v>
@@ -23371,7 +23371,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R439">
         <v>20</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23471,7 +23471,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R441">
         <v>5</v>
@@ -23524,7 +23524,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R442">
         <v>21</v>
@@ -23574,7 +23574,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23765,7 +23765,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23815,7 +23815,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R448">
         <v>5</v>
@@ -23868,7 +23868,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23915,7 +23915,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23962,7 +23962,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24012,7 +24012,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R452">
         <v>1</v>
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24112,7 +24112,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R454">
         <v>0</v>
@@ -24168,7 +24168,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R455">
         <v>4</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24312,7 +24312,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24359,7 +24359,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24400,10 +24400,10 @@
         <v>1</v>
       </c>
       <c r="P460" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q460">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24444,7 +24444,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
